--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7869" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7869" uniqueCount="1038">
   <si>
     <t>Property</t>
   </si>
@@ -1822,7 +1822,7 @@
     <t>服用もしくは注射を行なうタイミングを示す時刻</t>
   </si>
   <si>
-    <t>服用タイミングを具体的な日時で指定する場合に使⽤する</t>
+    <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
   </si>
   <si>
     <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
@@ -2306,7 +2306,7 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>JP Coreでは頓⽤型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
@@ -2328,11 +2328,11 @@
     <t>投与される身体部位</t>
   </si>
   <si>
-    <t>投与される身体部位。外⽤薬で部位を指定する場合に使⽤する。</t>
+    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
   </si>
   <si>
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](http://hl7.org/fhir/R4/extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
-【JP Core仕様】JAMI外⽤部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
@@ -2607,6 +2607,26 @@
 </t>
   </si>
   <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.++It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
+  </si>
+  <si>
+    <t>RXE22, RXE23, RXE-24</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
     <t>単位時間内での薬剤量</t>
   </si>
   <si>
@@ -2619,13 +2639,11 @@
     <t>患者の体内に導入される、あるいはされた薬剤の速度を指定する。一般的には、たとえば1時間あたり100mlあるいは100ml/hrのように注射の速度を示す。たとえば、500mlを2時間でというように、単位時間あたりの速さを表現することもできる。その他、200マイクログラム/minや200マイクログラム/1分, 1 リットル/8時間のような表現もできる。しばしば、投与速度を投与総量/ 投与総時間で表ような場合に投与時間が明示される（たとえば、500ml/2時間という場合は、投与時間が2時間であることを示している）。しかしながら、投与速度で投与時間が明示されない場合（たとえば、250ml/毎時)は、timing.repeat.durationが注射の総投与時間を示すためには必要となる。</t>
   </si>
   <si>
-    <t>Dosage.doseAndRate.rate[x]</t>
-  </si>
-  <si>
-    <t>.rateQuantity</t>
-  </si>
-  <si>
-    <t>RXE22, RXE23, RXE-24</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x].id</t>
@@ -2710,7 +2728,13 @@
     <t>A computer processable form of the unit in some unit representation system.</t>
   </si>
   <si>
-    <t>rateRatio</t>
+    <t>rateRange</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
@@ -2724,25 +2748,6 @@
   </si>
   <si>
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
-    <t>rateRange</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
@@ -20989,16 +20994,16 @@
         <v>828</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>80</v>
@@ -21045,7 +21050,7 @@
         <v>314</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>78</v>
@@ -21066,20 +21071,22 @@
         <v>80</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>836</v>
-      </c>
-      <c r="B154" s="2"/>
+        <v>827</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>834</v>
+      </c>
       <c r="C154" t="s" s="2">
         <v>80</v>
       </c>
@@ -21100,16 +21107,20 @@
         <v>80</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>90</v>
+        <v>828</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>169</v>
+        <v>835</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+        <v>836</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>838</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>80</v>
       </c>
@@ -21157,7 +21168,7 @@
         <v>80</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>171</v>
+        <v>831</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>78</v>
@@ -21166,10 +21177,10 @@
         <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>80</v>
+        <v>839</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>80</v>
@@ -21178,29 +21189,29 @@
         <v>80</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>172</v>
+        <v>840</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>80</v>
@@ -21212,17 +21223,15 @@
         <v>80</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>80</v>
@@ -21259,31 +21268,31 @@
         <v>80</v>
       </c>
       <c r="AA155" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB155" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD155" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>80</v>
@@ -21303,18 +21312,18 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>80</v>
@@ -21323,18 +21332,20 @@
         <v>80</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>839</v>
+        <v>133</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>840</v>
+        <v>174</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="M156" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>80</v>
@@ -21371,31 +21382,31 @@
         <v>80</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AC156" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>841</v>
+        <v>177</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>80</v>
@@ -21404,7 +21415,7 @@
         <v>80</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>842</v>
+        <v>172</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>80</v>
@@ -21438,10 +21449,10 @@
         <v>89</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>845</v>
@@ -21547,16 +21558,16 @@
         <v>80</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>90</v>
+        <v>844</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>169</v>
+        <v>849</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>170</v>
+        <v>850</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -21607,7 +21618,7 @@
         <v>80</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>171</v>
+        <v>851</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>78</v>
@@ -21619,7 +21630,7 @@
         <v>80</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>80</v>
@@ -21628,7 +21639,7 @@
         <v>80</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>172</v>
+        <v>852</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>80</v>
@@ -21639,18 +21650,18 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>80</v>
@@ -21662,17 +21673,15 @@
         <v>80</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>80</v>
@@ -21709,31 +21718,31 @@
         <v>80</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB159" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC159" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD159" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>80</v>
@@ -21753,18 +21762,18 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>80</v>
@@ -21773,29 +21782,27 @@
         <v>80</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>601</v>
+        <v>133</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>851</v>
+        <v>174</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>852</v>
+        <v>175</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P160" s="2"/>
       <c r="Q160" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R160" t="s" s="2">
         <v>80</v>
@@ -21825,31 +21832,31 @@
         <v>80</v>
       </c>
       <c r="AA160" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB160" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AC160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD160" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>605</v>
+        <v>177</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>80</v>
@@ -21858,18 +21865,18 @@
         <v>80</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>606</v>
+        <v>172</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>607</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21886,32 +21893,32 @@
         <v>80</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I161" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>108</v>
+        <v>601</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>609</v>
+        <v>856</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M161" s="2"/>
+        <v>857</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="N161" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P161" t="s" s="2">
-        <v>612</v>
-      </c>
+      <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="R161" t="s" s="2">
         <v>80</v>
@@ -21929,13 +21936,13 @@
         <v>80</v>
       </c>
       <c r="W161" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>613</v>
+        <v>80</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>614</v>
+        <v>80</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>80</v>
@@ -21953,7 +21960,7 @@
         <v>80</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>78</v>
@@ -21974,18 +21981,18 @@
         <v>80</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22002,30 +22009,32 @@
         <v>80</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>855</v>
+        <v>609</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>856</v>
+        <v>610</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P162" s="2"/>
+      <c r="P162" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="Q162" t="s" s="2">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>80</v>
@@ -22043,13 +22052,13 @@
         <v>80</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>80</v>
+        <v>613</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>80</v>
+        <v>614</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>80</v>
@@ -22067,7 +22076,7 @@
         <v>80</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>78</v>
@@ -22088,18 +22097,18 @@
         <v>80</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22122,24 +22131,24 @@
         <v>89</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="R163" t="s" s="2">
         <v>80</v>
@@ -22181,7 +22190,7 @@
         <v>80</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>78</v>
@@ -22190,7 +22199,7 @@
         <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>632</v>
+        <v>80</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>100</v>
@@ -22202,7 +22211,7 @@
         <v>80</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>80</v>
@@ -22213,7 +22222,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22236,26 +22245,24 @@
         <v>89</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>637</v>
-      </c>
+        <v>864</v>
+      </c>
+      <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="R164" t="s" s="2">
         <v>80</v>
@@ -22297,7 +22304,7 @@
         <v>80</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>78</v>
@@ -22306,7 +22313,7 @@
         <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>80</v>
+        <v>632</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>100</v>
@@ -22318,7 +22325,7 @@
         <v>80</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>80</v>
@@ -22329,11 +22336,9 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>863</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
         <v>80</v>
       </c>
@@ -22351,29 +22356,29 @@
         <v>80</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>864</v>
+        <v>108</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>867</v>
+        <v>637</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>868</v>
+        <v>638</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
-        <v>80</v>
+        <v>639</v>
       </c>
       <c r="R165" t="s" s="2">
         <v>80</v>
@@ -22415,7 +22420,7 @@
         <v>80</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>833</v>
+        <v>640</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>78</v>
@@ -22424,10 +22429,10 @@
         <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>869</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>80</v>
@@ -22436,13 +22441,13 @@
         <v>80</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>870</v>
+        <v>641</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>131</v>
+        <v>625</v>
       </c>
     </row>
     <row r="166">
@@ -22450,7 +22455,7 @@
         <v>827</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>80</v>
@@ -22484,7 +22489,7 @@
         <v>819</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>868</v>
+        <v>830</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>80</v>
@@ -22533,7 +22538,7 @@
         <v>80</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>78</v>
@@ -22568,7 +22573,7 @@
         <v>827</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>80</v>
@@ -22602,7 +22607,7 @@
         <v>826</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>868</v>
+        <v>830</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>80</v>
@@ -22651,7 +22656,7 @@
         <v>80</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>78</v>
@@ -22683,7 +22688,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22706,19 +22711,19 @@
         <v>80</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>80</v>
@@ -22767,7 +22772,7 @@
         <v>80</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>78</v>
@@ -22779,7 +22784,7 @@
         <v>144</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>869</v>
+        <v>839</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>80</v>
@@ -22788,7 +22793,7 @@
         <v>80</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>80</v>
@@ -22799,7 +22804,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22834,7 +22839,7 @@
         <v>826</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>80</v>
@@ -22883,7 +22888,7 @@
         <v>80</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>78</v>
@@ -22915,7 +22920,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22950,7 +22955,7 @@
         <v>826</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>80</v>
@@ -22999,7 +23004,7 @@
         <v>80</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>78</v>
@@ -23031,7 +23036,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23054,13 +23059,13 @@
         <v>80</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -23111,7 +23116,7 @@
         <v>80</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>78</v>
@@ -23129,10 +23134,10 @@
         <v>80</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>80</v>
@@ -23143,7 +23148,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -23169,10 +23174,10 @@
         <v>90</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -23255,7 +23260,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23365,10 +23370,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C174" t="s" s="2">
         <v>80</v>
@@ -23390,13 +23395,13 @@
         <v>80</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -23479,7 +23484,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23591,7 +23596,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23703,7 +23708,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23729,13 +23734,13 @@
         <v>102</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
@@ -23743,7 +23748,7 @@
       </c>
       <c r="P177" s="2"/>
       <c r="Q177" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="R177" t="s" s="2">
         <v>80</v>
@@ -23785,7 +23790,7 @@
         <v>80</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>88</v>
@@ -23817,7 +23822,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23843,10 +23848,10 @@
         <v>189</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -23895,7 +23900,7 @@
         <v>314</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>78</v>
@@ -23927,10 +23932,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>80</v>
@@ -23955,10 +23960,10 @@
         <v>189</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -24009,7 +24014,7 @@
         <v>80</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>78</v>
@@ -24041,7 +24046,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24153,7 +24158,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24267,7 +24272,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -24331,7 +24336,7 @@
       </c>
       <c r="X182" s="2"/>
       <c r="Y182" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="Z182" t="s" s="2">
         <v>80</v>
@@ -24381,7 +24386,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24407,13 +24412,13 @@
         <v>90</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="N183" t="s" s="2">
         <v>376</v>
@@ -24497,10 +24502,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C184" t="s" s="2">
         <v>80</v>
@@ -24522,13 +24527,13 @@
         <v>80</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -24611,7 +24616,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24727,7 +24732,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24750,16 +24755,16 @@
         <v>80</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -24809,7 +24814,7 @@
         <v>80</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>78</v>
@@ -24830,7 +24835,7 @@
         <v>80</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>80</v>
@@ -24841,7 +24846,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24953,7 +24958,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25067,7 +25072,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -25183,7 +25188,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -25209,13 +25214,13 @@
         <v>824</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
@@ -25265,7 +25270,7 @@
         <v>80</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>78</v>
@@ -25297,7 +25302,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25323,13 +25328,13 @@
         <v>595</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" t="s" s="2">
@@ -25379,7 +25384,7 @@
         <v>80</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>78</v>
@@ -25400,7 +25405,7 @@
         <v>80</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>80</v>
@@ -25411,7 +25416,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25437,13 +25442,13 @@
         <v>595</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -25493,7 +25498,7 @@
         <v>80</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>78</v>
@@ -25514,7 +25519,7 @@
         <v>80</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>80</v>
@@ -25525,7 +25530,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25551,16 +25556,16 @@
         <v>218</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>80</v>
@@ -25609,7 +25614,7 @@
         <v>80</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>78</v>
@@ -25627,10 +25632,10 @@
         <v>80</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>80</v>
@@ -25641,7 +25646,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25753,7 +25758,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25867,7 +25872,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25893,13 +25898,13 @@
         <v>409</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
@@ -25949,7 +25954,7 @@
         <v>80</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>78</v>
@@ -25958,7 +25963,7 @@
         <v>88</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>100</v>
@@ -25970,18 +25975,18 @@
         <v>80</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26007,20 +26012,20 @@
         <v>409</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P197" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="Q197" t="s" s="2">
         <v>80</v>
@@ -26065,7 +26070,7 @@
         <v>80</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>78</v>
@@ -26074,7 +26079,7 @@
         <v>88</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AI197" t="s" s="2">
         <v>100</v>
@@ -26086,18 +26091,18 @@
         <v>80</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26123,13 +26128,13 @@
         <v>718</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
@@ -26179,7 +26184,7 @@
         <v>80</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>78</v>
@@ -26197,21 +26202,21 @@
         <v>80</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26237,13 +26242,13 @@
         <v>824</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
@@ -26293,7 +26298,7 @@
         <v>80</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>78</v>
@@ -26325,7 +26330,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26351,13 +26356,13 @@
         <v>595</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
@@ -26407,7 +26412,7 @@
         <v>80</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>78</v>
@@ -26425,10 +26430,10 @@
         <v>80</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>80</v>
@@ -26439,7 +26444,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26551,7 +26556,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26665,7 +26670,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26691,10 +26696,10 @@
         <v>601</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="M203" t="s" s="2">
         <v>603</v>
@@ -26781,7 +26786,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26897,7 +26902,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26923,10 +26928,10 @@
         <v>90</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
@@ -27011,7 +27016,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27037,10 +27042,10 @@
         <v>102</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
@@ -27125,7 +27130,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27151,10 +27156,10 @@
         <v>108</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>637</v>
@@ -27241,7 +27246,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -27264,13 +27269,13 @@
         <v>80</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M208" t="s" s="2">
         <v>405</v>
@@ -27323,7 +27328,7 @@
         <v>80</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>78</v>
@@ -27344,7 +27349,7 @@
         <v>80</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>442</v>
@@ -27355,7 +27360,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -27378,13 +27383,13 @@
         <v>80</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -27435,7 +27440,7 @@
         <v>80</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>78</v>
@@ -27453,10 +27458,10 @@
         <v>80</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>80</v>
@@ -27467,7 +27472,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -27579,7 +27584,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27693,7 +27698,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27809,7 +27814,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27835,13 +27840,13 @@
         <v>189</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" t="s" s="2">
@@ -27871,7 +27876,7 @@
       </c>
       <c r="X213" s="2"/>
       <c r="Y213" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="Z213" t="s" s="2">
         <v>80</v>
@@ -27889,7 +27894,7 @@
         <v>80</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>88</v>
@@ -27907,21 +27912,21 @@
         <v>80</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AL213" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AM213" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27947,13 +27952,13 @@
         <v>189</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
@@ -27982,10 +27987,10 @@
         <v>265</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="Z214" t="s" s="2">
         <v>80</v>
@@ -28003,7 +28008,7 @@
         <v>80</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>78</v>
@@ -28021,21 +28026,21 @@
         <v>80</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28058,13 +28063,13 @@
         <v>80</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="M215" t="s" s="2">
         <v>405</v>
@@ -28117,7 +28122,7 @@
         <v>80</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>78</v>
@@ -28132,13 +28137,13 @@
         <v>100</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>80</v>
@@ -28149,11 +28154,11 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -28172,16 +28177,16 @@
         <v>80</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
@@ -28231,7 +28236,7 @@
         <v>80</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>78</v>
@@ -28252,7 +28257,7 @@
         <v>80</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>80</v>
@@ -28263,7 +28268,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -28286,16 +28291,16 @@
         <v>80</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
@@ -28345,7 +28350,7 @@
         <v>80</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>78</v>
@@ -28360,13 +28365,13 @@
         <v>100</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
@@ -456,10 +456,10 @@
 </t>
   </si>
   <si>
-    <t>調剤についてのExtension</t>
-  </si>
-  <si>
-    <t>一包化、粉砕などの処理を行った際に記載する。</t>
+    <t>調剤結果</t>
+  </si>
+  <si>
+    <t>薬剤単位の調剤結果</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -6202,7 +6202,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
@@ -6318,7 +6318,7 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>
@@ -6664,7 +6664,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6776,7 +6776,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="693">
   <si>
     <t>Property</t>
   </si>
@@ -752,9 +752,6 @@
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -978,19 +975,26 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>What medication was supplied　医薬品</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
++なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
++ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -1021,6 +1025,18 @@
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
   </si>
   <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t>Medication to be taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
     <t>medicationCodeableConcept</t>
   </si>
   <si>
@@ -1043,13 +1059,15 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.
+コード集で定義された医薬品コードへの情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
+</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -1064,6 +1082,123 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
+    <t>MedicationRequest.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
     <t>MedicationRequest.medication[x].text</t>
   </si>
   <si>
@@ -1086,13 +1221,6 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -2368,7 +2496,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5401,7 +5529,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5435,7 +5563,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>80</v>
@@ -5517,7 +5645,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>88</v>
@@ -5535,13 +5663,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5852,7 +5980,7 @@
         <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
@@ -5877,13 +6005,13 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6449,10 +6577,10 @@
         <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>202</v>
@@ -6465,7 +6593,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>80</v>
@@ -6565,10 +6693,10 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>212</v>
@@ -6879,7 +7007,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6905,13 +7033,13 @@
         <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6940,11 +7068,11 @@
         <v>183</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6961,7 +7089,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>88</v>
@@ -6976,16 +7104,16 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6993,7 +7121,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7019,13 +7147,13 @@
         <v>189</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7051,14 +7179,14 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="X41" t="s" s="2">
+      <c r="Y41" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
       </c>
@@ -7075,7 +7203,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7090,13 +7218,13 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -7107,7 +7235,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7133,13 +7261,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7147,7 +7275,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>80</v>
@@ -7168,11 +7296,11 @@
         <v>183</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7189,7 +7317,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -7204,16 +7332,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7221,7 +7349,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7247,13 +7375,13 @@
         <v>189</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7283,7 +7411,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7301,7 +7429,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7319,13 +7447,13 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7333,7 +7461,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7359,13 +7487,13 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7394,11 +7522,11 @@
         <v>183</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7415,7 +7543,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7430,16 +7558,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7447,7 +7575,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7470,16 +7598,16 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7529,7 +7657,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7550,7 +7678,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7561,7 +7689,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7584,13 +7712,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7641,7 +7769,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7662,7 +7790,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7673,7 +7801,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7696,7 +7824,7 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>308</v>
@@ -7731,29 +7859,29 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>88</v>
@@ -7768,27 +7896,27 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>80</v>
@@ -7798,7 +7926,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7810,16 +7938,16 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>307</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7845,13 +7973,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7869,7 +7997,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>88</v>
@@ -7884,26 +8012,28 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7921,18 +8051,20 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7957,13 +8089,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7981,10 +8113,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7993,38 +8125,38 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>172</v>
+        <v>315</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -8036,17 +8168,15 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8083,31 +8213,31 @@
         <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
@@ -8127,15 +8257,15 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>79</v>
@@ -8147,23 +8277,21 @@
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>327</v>
+        <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8199,19 +8327,19 @@
         <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8223,7 +8351,7 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>80</v>
@@ -8232,18 +8360,18 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>332</v>
+        <v>172</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8251,10 +8379,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -8266,19 +8394,19 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>328</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8327,13 +8455,13 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
@@ -8348,22 +8476,20 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8381,20 +8507,18 @@
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8443,10 +8567,10 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>307</v>
+        <v>171</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>88</v>
@@ -8455,38 +8579,38 @@
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -8495,19 +8619,19 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>345</v>
+        <v>133</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>346</v>
+        <v>174</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>347</v>
+        <v>175</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8545,51 +8669,51 @@
         <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>344</v>
+        <v>177</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>351</v>
+        <v>172</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8597,7 +8721,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>88</v>
@@ -8609,21 +8733,23 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>355</v>
+        <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8671,7 +8797,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8686,24 +8812,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8714,7 +8840,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8723,19 +8849,19 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>364</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8785,13 +8911,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8800,24 +8926,24 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8840,16 +8966,18 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>371</v>
+        <v>108</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8897,7 +9025,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8912,24 +9040,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8952,18 +9080,18 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9011,7 +9139,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9026,24 +9154,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9063,21 +9191,23 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>386</v>
+        <v>296</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9125,7 +9255,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9140,24 +9270,24 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9180,18 +9310,20 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9215,11 +9347,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9237,7 +9371,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9252,24 +9386,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9277,7 +9411,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>88</v>
@@ -9289,19 +9423,19 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9351,10 +9485,10 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>88</v>
@@ -9366,24 +9500,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9394,7 +9528,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -9406,16 +9540,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>189</v>
+        <v>394</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9441,13 +9575,13 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9465,13 +9599,13 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
@@ -9480,24 +9614,24 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>412</v>
+        <v>257</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9520,16 +9654,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9579,7 +9713,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9594,16 +9728,16 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9611,7 +9745,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9619,10 +9753,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9634,17 +9768,15 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9693,13 +9825,13 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9708,24 +9840,24 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9736,7 +9868,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9748,16 +9880,16 @@
         <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>102</v>
+        <v>419</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9807,13 +9939,13 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
@@ -9822,16 +9954,16 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9839,7 +9971,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9850,7 +9982,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9859,19 +9991,19 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9921,13 +10053,13 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -9936,16 +10068,16 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9953,7 +10085,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9976,18 +10108,18 @@
         <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10011,13 +10143,11 @@
         <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -10035,7 +10165,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10050,13 +10180,13 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10067,7 +10197,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10090,16 +10220,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>189</v>
+        <v>439</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10125,13 +10255,13 @@
         <v>80</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>80</v>
@@ -10149,7 +10279,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10170,10 +10300,10 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10181,7 +10311,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10204,16 +10334,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>453</v>
+        <v>189</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>367</v>
+        <v>447</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10239,13 +10369,13 @@
         <v>80</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>80</v>
@@ -10263,7 +10393,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10278,24 +10408,24 @@
         <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10318,16 +10448,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10377,7 +10507,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10392,16 +10522,16 @@
         <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>464</v>
+        <v>257</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10409,7 +10539,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10429,19 +10559,19 @@
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10491,7 +10621,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10506,13 +10636,13 @@
         <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10523,7 +10653,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10534,7 +10664,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>80</v>
@@ -10543,18 +10673,20 @@
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>473</v>
+        <v>102</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10603,13 +10735,13 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>80</v>
@@ -10621,10 +10753,10 @@
         <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10635,7 +10767,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10646,7 +10778,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10655,18 +10787,20 @@
         <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>473</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10715,28 +10849,28 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>171</v>
+        <v>472</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>172</v>
+        <v>477</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10747,7 +10881,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10758,7 +10892,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
@@ -10767,19 +10901,21 @@
         <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>134</v>
+        <v>479</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>135</v>
+        <v>480</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10815,38 +10951,40 @@
         <v>80</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB74" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>177</v>
+        <v>478</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10857,11 +10995,9 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10870,7 +11006,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
@@ -10882,15 +11018,17 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>483</v>
+        <v>189</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
@@ -10915,13 +11053,13 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>80</v>
@@ -10939,19 +11077,19 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>177</v>
+        <v>484</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
@@ -10960,7 +11098,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10971,11 +11109,9 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10984,7 +11120,7 @@
         <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>80</v>
@@ -10996,15 +11132,17 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -11053,7 +11191,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>177</v>
+        <v>491</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11062,19 +11200,19 @@
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11085,11 +11223,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11102,26 +11240,24 @@
         <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>133</v>
+        <v>498</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11169,7 +11305,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11181,16 +11317,16 @@
         <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>80</v>
+        <v>503</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>131</v>
+        <v>504</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11201,7 +11337,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11212,7 +11348,7 @@
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>80</v>
@@ -11224,16 +11360,16 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11283,13 +11419,13 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>80</v>
@@ -11304,7 +11440,7 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11315,7 +11451,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11338,13 +11474,13 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>169</v>
+        <v>513</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>170</v>
+        <v>514</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11395,7 +11531,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>171</v>
+        <v>511</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11407,16 +11543,16 @@
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>172</v>
+        <v>516</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11427,18 +11563,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11450,17 +11586,15 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>174</v>
+        <v>518</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11509,19 +11643,19 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -11541,11 +11675,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11558,26 +11692,22 @@
         <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>492</v>
+        <v>134</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11613,19 +11743,17 @@
         <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>494</v>
+        <v>177</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11646,7 +11774,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11657,9 +11785,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="C82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11668,7 +11798,7 @@
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -11680,17 +11810,15 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>80</v>
@@ -11739,19 +11867,19 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>503</v>
+        <v>177</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>508</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>80</v>
@@ -11760,20 +11888,22 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B83" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="C83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11794,17 +11924,15 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>80</v>
@@ -11853,19 +11981,19 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>511</v>
+        <v>177</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>80</v>
@@ -11874,7 +12002,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11885,41 +12013,43 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>512</v>
+        <v>133</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
@@ -11967,19 +12097,19 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>80</v>
@@ -11988,7 +12118,7 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>515</v>
+        <v>131</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
@@ -11999,7 +12129,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12022,20 +12152,18 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>218</v>
+        <v>512</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12083,7 +12211,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12101,10 +12229,10 @@
         <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12115,7 +12243,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12227,7 +12355,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12297,16 +12425,16 @@
         <v>80</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
         <v>177</v>
@@ -12341,41 +12469,43 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12423,19 +12553,19 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>533</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>80</v>
@@ -12444,18 +12574,18 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>534</v>
+        <v>131</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12475,27 +12605,25 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>371</v>
+        <v>543</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P89" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12539,7 +12667,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12548,10 +12676,10 @@
         <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>533</v>
+        <v>144</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>547</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12560,18 +12688,18 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12594,16 +12722,16 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12653,7 +12781,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12671,21 +12799,21 @@
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>551</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12708,16 +12836,16 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>504</v>
+        <v>551</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12767,7 +12895,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12776,10 +12904,10 @@
         <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>508</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>80</v>
@@ -12788,18 +12916,18 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>509</v>
+        <v>554</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12822,18 +12950,20 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>512</v>
+        <v>218</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>80</v>
       </c>
@@ -12881,7 +13011,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12899,10 +13029,10 @@
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -12913,7 +13043,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13025,7 +13155,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13139,7 +13269,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13162,20 +13292,18 @@
         <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>564</v>
+        <v>410</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13223,7 +13351,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13232,7 +13360,7 @@
         <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>572</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>100</v>
@@ -13244,18 +13372,18 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13272,29 +13400,29 @@
         <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>108</v>
+        <v>410</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P96" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="Q96" t="s" s="2">
         <v>80</v>
@@ -13315,13 +13443,13 @@
         <v>80</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>577</v>
+        <v>80</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>578</v>
+        <v>80</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>80</v>
@@ -13339,7 +13467,7 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13348,7 +13476,7 @@
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>572</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13360,18 +13488,18 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13391,27 +13519,27 @@
         <v>80</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>90</v>
+        <v>584</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>80</v>
@@ -13453,7 +13581,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13471,21 +13599,21 @@
         <v>80</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>80</v>
+        <v>588</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13505,27 +13633,27 @@
         <v>80</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>102</v>
+        <v>543</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" t="s" s="2">
         <v>593</v>
       </c>
+      <c r="M98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
-        <v>594</v>
+        <v>80</v>
       </c>
       <c r="R98" t="s" s="2">
         <v>80</v>
@@ -13567,7 +13695,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13576,10 +13704,10 @@
         <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>596</v>
+        <v>144</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>100</v>
+        <v>547</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>80</v>
@@ -13588,18 +13716,18 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>589</v>
+        <v>549</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13619,29 +13747,27 @@
         <v>80</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>108</v>
+        <v>551</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>603</v>
+        <v>80</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>80</v>
@@ -13683,7 +13809,7 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13701,21 +13827,21 @@
         <v>80</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13738,17 +13864,15 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>607</v>
+        <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>608</v>
+        <v>169</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>80</v>
@@ -13797,7 +13921,7 @@
         <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>606</v>
+        <v>171</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -13809,7 +13933,7 @@
         <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>80</v>
@@ -13818,10 +13942,10 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>610</v>
+        <v>172</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>80</v>
@@ -13829,18 +13953,18 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>80</v>
@@ -13852,15 +13976,17 @@
         <v>80</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>473</v>
+        <v>133</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>612</v>
+        <v>174</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M101" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>80</v>
@@ -13897,40 +14023,40 @@
         <v>80</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AC101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>611</v>
+        <v>177</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>614</v>
+        <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>615</v>
+        <v>172</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
@@ -13941,7 +14067,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13961,19 +14087,23 @@
         <v>80</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>90</v>
+        <v>603</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>169</v>
+        <v>604</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>80</v>
       </c>
@@ -14021,7 +14151,7 @@
         <v>80</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>171</v>
+        <v>608</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14033,7 +14163,7 @@
         <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>80</v>
@@ -14042,56 +14172,58 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>172</v>
+        <v>609</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>80</v>
+        <v>610</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>174</v>
+        <v>612</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="Q103" t="s" s="2">
         <v>80</v>
       </c>
@@ -14111,13 +14243,13 @@
         <v>80</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>80</v>
+        <v>617</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>80</v>
@@ -14135,19 +14267,19 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>177</v>
+        <v>618</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>80</v>
@@ -14156,60 +14288,58 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>172</v>
+        <v>619</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>80</v>
+        <v>620</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>492</v>
+        <v>622</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>150</v>
+        <v>624</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>80</v>
+        <v>625</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>80</v>
@@ -14251,19 +14381,19 @@
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>494</v>
+        <v>626</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>80</v>
@@ -14272,18 +14402,18 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>131</v>
+        <v>627</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>80</v>
+        <v>628</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14291,7 +14421,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>88</v>
@@ -14303,27 +14433,27 @@
         <v>80</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>632</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
-        <v>80</v>
+        <v>633</v>
       </c>
       <c r="R105" t="s" s="2">
         <v>80</v>
@@ -14341,11 +14471,13 @@
         <v>80</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X105" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y105" t="s" s="2">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>80</v>
@@ -14363,16 +14495,16 @@
         <v>80</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>80</v>
+        <v>635</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>100</v>
@@ -14381,21 +14513,21 @@
         <v>80</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>614</v>
+        <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14415,27 +14547,29 @@
         <v>80</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>641</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>80</v>
+        <v>642</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>80</v>
@@ -14453,13 +14587,13 @@
         <v>80</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>629</v>
+        <v>80</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>630</v>
+        <v>80</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>80</v>
@@ -14477,7 +14611,7 @@
         <v>80</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14495,21 +14629,21 @@
         <v>80</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>631</v>
+        <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14532,16 +14666,16 @@
         <v>80</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14591,7 +14725,7 @@
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14606,16 +14740,16 @@
         <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>638</v>
+        <v>80</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>631</v>
+        <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>80</v>
@@ -14623,18 +14757,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>641</v>
+        <v>80</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>80</v>
@@ -14646,17 +14780,15 @@
         <v>80</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>642</v>
+        <v>512</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>645</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>80</v>
@@ -14705,13 +14837,13 @@
         <v>80</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>80</v>
@@ -14723,10 +14855,10 @@
         <v>80</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>80</v>
+        <v>653</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>80</v>
@@ -14737,7 +14869,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14748,7 +14880,7 @@
         <v>78</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>80</v>
@@ -14760,17 +14892,15 @@
         <v>80</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>648</v>
+        <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>649</v>
+        <v>169</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>80</v>
@@ -14819,33 +14949,831 @@
         <v>80</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>647</v>
+        <v>171</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F110" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI109" t="s" s="2">
+      <c r="G110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X112" s="2"/>
+      <c r="Y112" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI112" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ109" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL109" t="s" s="2">
+      <c r="AJ112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK112" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="AM109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN109" t="s" s="2">
+      <c r="AL112" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN116" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="694">
   <si>
     <t>Property</t>
   </si>
@@ -287,7 +287,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -542,6 +542,10 @@
   </si>
   <si>
     <t>MedicationRequest.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4056,13 +4060,13 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4113,7 +4117,7 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -4134,7 +4138,7 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -4145,7 +4149,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4171,10 +4175,10 @@
         <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>149</v>
@@ -4218,7 +4222,7 @@
         <v>136</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>80</v>
@@ -4227,7 +4231,7 @@
         <v>137</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -4248,7 +4252,7 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -4259,7 +4263,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4285,16 +4289,16 @@
         <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -4319,13 +4323,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -4343,7 +4347,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4364,7 +4368,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -4375,7 +4379,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4398,19 +4402,19 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -4435,13 +4439,13 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>80</v>
@@ -4459,7 +4463,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4480,18 +4484,18 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4517,29 +4521,29 @@
         <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>80</v>
@@ -4575,7 +4579,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4596,18 +4600,18 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4630,16 +4634,16 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4653,7 +4657,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -4689,7 +4693,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4710,18 +4714,18 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4744,13 +4748,13 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4801,7 +4805,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4822,18 +4826,18 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4856,16 +4860,16 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4915,7 +4919,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4936,13 +4940,13 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
@@ -4950,7 +4954,7 @@
         <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
@@ -4975,13 +4979,13 @@
         <v>154</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -5086,13 +5090,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5143,7 +5147,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5164,7 +5168,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -5175,7 +5179,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5201,10 +5205,10 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>149</v>
@@ -5248,7 +5252,7 @@
         <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
@@ -5257,7 +5261,7 @@
         <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5278,7 +5282,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -5289,7 +5293,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5315,16 +5319,16 @@
         <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -5349,13 +5353,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -5373,7 +5377,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5394,7 +5398,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5405,7 +5409,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5428,19 +5432,19 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -5465,13 +5469,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -5489,7 +5493,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5510,18 +5514,18 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5547,16 +5551,16 @@
         <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5569,7 +5573,7 @@
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5605,7 +5609,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5626,18 +5630,18 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5660,16 +5664,16 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5683,7 +5687,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5719,7 +5723,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5740,18 +5744,18 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5774,13 +5778,13 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5831,7 +5835,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5852,18 +5856,18 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5886,16 +5890,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5945,7 +5949,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5966,13 +5970,13 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
@@ -5980,7 +5984,7 @@
         <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
@@ -6005,13 +6009,13 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6116,13 +6120,13 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -6173,7 +6177,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6194,7 +6198,7 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -6205,7 +6209,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6231,10 +6235,10 @@
         <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>149</v>
@@ -6278,7 +6282,7 @@
         <v>136</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>80</v>
@@ -6287,7 +6291,7 @@
         <v>137</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6308,7 +6312,7 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -6319,7 +6323,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6345,16 +6349,16 @@
         <v>108</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6379,13 +6383,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6403,7 +6407,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6424,7 +6428,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6435,7 +6439,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6458,19 +6462,19 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6495,13 +6499,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -6519,7 +6523,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6540,18 +6544,18 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6577,29 +6581,29 @@
         <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6635,7 +6639,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6656,18 +6660,18 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6690,16 +6694,16 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6713,7 +6717,7 @@
         <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>80</v>
@@ -6749,7 +6753,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6770,18 +6774,18 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6804,13 +6808,13 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6861,7 +6865,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6882,18 +6886,18 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6916,16 +6920,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6975,7 +6979,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6996,18 +7000,18 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7033,13 +7037,13 @@
         <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7065,13 +7069,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -7089,7 +7093,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>88</v>
@@ -7104,16 +7108,16 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -7121,7 +7125,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7144,16 +7148,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7179,13 +7183,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -7203,7 +7207,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7218,13 +7222,13 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -7235,7 +7239,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7261,13 +7265,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7275,7 +7279,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>80</v>
@@ -7293,13 +7297,13 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -7317,7 +7321,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -7332,16 +7336,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7349,7 +7353,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7372,16 +7376,16 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7411,7 +7415,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7429,7 +7433,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7447,13 +7451,13 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7461,7 +7465,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7487,13 +7491,13 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7519,13 +7523,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7543,7 +7547,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7558,16 +7562,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7575,7 +7579,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7598,16 +7602,16 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7657,7 +7661,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7678,7 +7682,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7689,7 +7693,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7712,13 +7716,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7769,7 +7773,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7790,7 +7794,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7801,7 +7805,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7824,16 +7828,16 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7871,17 +7875,17 @@
         <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>88</v>
@@ -7896,27 +7900,27 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>80</v>
@@ -7938,16 +7942,16 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7997,7 +8001,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>88</v>
@@ -8012,27 +8016,27 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>80</v>
@@ -8054,16 +8058,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8092,10 +8096,10 @@
         <v>112</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -8113,7 +8117,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>88</v>
@@ -8128,24 +8132,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8168,13 +8172,13 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8225,7 +8229,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8246,7 +8250,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8257,7 +8261,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8283,10 +8287,10 @@
         <v>133</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>149</v>
@@ -8330,7 +8334,7 @@
         <v>136</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>80</v>
@@ -8339,7 +8343,7 @@
         <v>137</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8360,7 +8364,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -8371,7 +8375,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8394,19 +8398,19 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8455,7 +8459,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8476,18 +8480,18 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8510,13 +8514,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8567,7 +8571,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8588,7 +8592,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8599,7 +8603,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8625,10 +8629,10 @@
         <v>133</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>149</v>
@@ -8672,7 +8676,7 @@
         <v>136</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>80</v>
@@ -8681,7 +8685,7 @@
         <v>137</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8702,7 +8706,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8713,7 +8717,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8739,16 +8743,16 @@
         <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8797,7 +8801,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8818,18 +8822,18 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8852,16 +8856,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8911,7 +8915,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8932,18 +8936,18 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8969,14 +8973,14 @@
         <v>108</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -9025,7 +9029,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9046,18 +9050,18 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9080,17 +9084,17 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9139,7 +9143,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9160,18 +9164,18 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9194,19 +9198,19 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9255,7 +9259,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9276,18 +9280,18 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9310,19 +9314,19 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9371,7 +9375,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9392,18 +9396,18 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9426,16 +9430,16 @@
         <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9485,7 +9489,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>88</v>
@@ -9500,24 +9504,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9540,16 +9544,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9599,7 +9603,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9614,24 +9618,24 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9654,16 +9658,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9713,7 +9717,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9728,16 +9732,16 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9745,7 +9749,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9768,13 +9772,13 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9825,7 +9829,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9840,24 +9844,24 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9880,16 +9884,16 @@
         <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9939,7 +9943,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9954,16 +9958,16 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9971,7 +9975,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9994,16 +9998,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10053,7 +10057,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10068,16 +10072,16 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -10085,7 +10089,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10108,16 +10112,16 @@
         <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10143,11 +10147,11 @@
         <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -10165,7 +10169,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10180,13 +10184,13 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10197,7 +10201,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10220,16 +10224,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10279,7 +10283,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10300,10 +10304,10 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10311,7 +10315,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10334,16 +10338,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10369,13 +10373,13 @@
         <v>80</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>80</v>
@@ -10393,7 +10397,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10408,24 +10412,24 @@
         <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10448,16 +10452,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10507,7 +10511,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10522,16 +10526,16 @@
         <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10539,7 +10543,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10562,16 +10566,16 @@
         <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10621,7 +10625,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10636,13 +10640,13 @@
         <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10653,7 +10657,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10679,13 +10683,13 @@
         <v>102</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10735,7 +10739,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10756,7 +10760,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10767,7 +10771,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10790,16 +10794,16 @@
         <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10849,7 +10853,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10864,13 +10868,13 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10881,7 +10885,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10907,14 +10911,14 @@
         <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10963,7 +10967,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10978,13 +10982,13 @@
         <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10995,7 +10999,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11018,16 +11022,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11053,13 +11057,13 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>80</v>
@@ -11077,7 +11081,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11098,7 +11102,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -11109,7 +11113,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11132,16 +11136,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11191,7 +11195,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11206,13 +11210,13 @@
         <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11223,7 +11227,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11246,16 +11250,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11305,7 +11309,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11320,13 +11324,13 @@
         <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11337,7 +11341,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11360,16 +11364,16 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11419,7 +11423,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11440,7 +11444,7 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11451,7 +11455,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11474,13 +11478,13 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11531,7 +11535,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11549,10 +11553,10 @@
         <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11563,7 +11567,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11586,13 +11590,13 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11643,7 +11647,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11664,7 +11668,7 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11675,7 +11679,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11753,7 +11757,7 @@
         <v>137</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11785,10 +11789,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>80</v>
@@ -11810,13 +11814,13 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11867,7 +11871,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11899,10 +11903,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>80</v>
@@ -11924,13 +11928,13 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11981,7 +11985,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12013,11 +12017,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12039,10 +12043,10 @@
         <v>133</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>149</v>
@@ -12097,7 +12101,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12129,7 +12133,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12152,16 +12156,16 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12211,7 +12215,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12232,7 +12236,7 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12243,7 +12247,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12266,13 +12270,13 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12323,7 +12327,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12344,7 +12348,7 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
@@ -12355,7 +12359,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12381,10 +12385,10 @@
         <v>133</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>149</v>
@@ -12437,7 +12441,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12458,7 +12462,7 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12469,11 +12473,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12495,10 +12499,10 @@
         <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>149</v>
@@ -12553,7 +12557,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12585,7 +12589,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12608,16 +12612,16 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12667,7 +12671,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12679,7 +12683,7 @@
         <v>144</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12688,18 +12692,18 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12722,16 +12726,16 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12781,7 +12785,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12802,7 +12806,7 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12813,7 +12817,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12836,16 +12840,16 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12895,7 +12899,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12916,7 +12920,7 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
@@ -12927,7 +12931,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12950,19 +12954,19 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>80</v>
@@ -13011,7 +13015,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13029,10 +13033,10 @@
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -13043,7 +13047,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13066,13 +13070,13 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13123,7 +13127,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13144,7 +13148,7 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -13155,7 +13159,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13181,10 +13185,10 @@
         <v>133</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>149</v>
@@ -13228,7 +13232,7 @@
         <v>136</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>80</v>
@@ -13237,7 +13241,7 @@
         <v>137</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13258,7 +13262,7 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
@@ -13269,7 +13273,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13292,16 +13296,16 @@
         <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13351,7 +13355,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13360,7 +13364,7 @@
         <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>100</v>
@@ -13372,18 +13376,18 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13406,23 +13410,23 @@
         <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P96" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q96" t="s" s="2">
         <v>80</v>
@@ -13467,7 +13471,7 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13476,7 +13480,7 @@
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13488,18 +13492,18 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13522,16 +13526,16 @@
         <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13581,7 +13585,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13599,21 +13603,21 @@
         <v>80</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13636,16 +13640,16 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13695,7 +13699,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13707,7 +13711,7 @@
         <v>144</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>80</v>
@@ -13716,18 +13720,18 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13750,16 +13754,16 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13809,7 +13813,7 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13827,10 +13831,10 @@
         <v>80</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13841,7 +13845,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13864,13 +13868,13 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13921,7 +13925,7 @@
         <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -13942,7 +13946,7 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
@@ -13953,7 +13957,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13979,10 +13983,10 @@
         <v>133</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>149</v>
@@ -14026,7 +14030,7 @@
         <v>136</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC101" t="s" s="2">
         <v>80</v>
@@ -14035,7 +14039,7 @@
         <v>137</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14056,7 +14060,7 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
@@ -14067,7 +14071,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14090,19 +14094,19 @@
         <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>80</v>
@@ -14151,7 +14155,7 @@
         <v>80</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14172,18 +14176,18 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14209,20 +14213,20 @@
         <v>108</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P103" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q103" t="s" s="2">
         <v>80</v>
@@ -14243,13 +14247,13 @@
         <v>80</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>80</v>
@@ -14267,7 +14271,7 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14288,18 +14292,18 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14322,24 +14326,24 @@
         <v>89</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>80</v>
@@ -14381,7 +14385,7 @@
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14402,18 +14406,18 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14439,21 +14443,21 @@
         <v>102</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="R105" t="s" s="2">
         <v>80</v>
@@ -14495,7 +14499,7 @@
         <v>80</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14504,7 +14508,7 @@
         <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>100</v>
@@ -14516,18 +14520,18 @@
         <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14553,23 +14557,23 @@
         <v>108</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>80</v>
@@ -14611,7 +14615,7 @@
         <v>80</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14632,18 +14636,18 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14666,16 +14670,16 @@
         <v>80</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14725,7 +14729,7 @@
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14746,10 +14750,10 @@
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>80</v>
@@ -14757,7 +14761,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14780,13 +14784,13 @@
         <v>80</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14837,7 +14841,7 @@
         <v>80</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -14855,10 +14859,10 @@
         <v>80</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>80</v>
@@ -14869,7 +14873,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14892,13 +14896,13 @@
         <v>80</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14949,7 +14953,7 @@
         <v>80</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -14970,7 +14974,7 @@
         <v>80</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>80</v>
@@ -14981,7 +14985,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15007,10 +15011,10 @@
         <v>133</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>149</v>
@@ -15063,7 +15067,7 @@
         <v>80</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15084,7 +15088,7 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
@@ -15095,11 +15099,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15121,10 +15125,10 @@
         <v>133</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>149</v>
@@ -15179,7 +15183,7 @@
         <v>80</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -15211,7 +15215,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15234,16 +15238,16 @@
         <v>80</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15273,7 +15277,7 @@
       </c>
       <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>80</v>
@@ -15291,7 +15295,7 @@
         <v>80</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>88</v>
@@ -15309,21 +15313,21 @@
         <v>80</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15346,16 +15350,16 @@
         <v>80</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15381,13 +15385,13 @@
         <v>80</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>80</v>
@@ -15405,7 +15409,7 @@
         <v>80</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15423,21 +15427,21 @@
         <v>80</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15460,16 +15464,16 @@
         <v>80</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15519,7 +15523,7 @@
         <v>80</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15534,13 +15538,13 @@
         <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>80</v>
@@ -15551,11 +15555,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15574,16 +15578,16 @@
         <v>80</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15633,7 +15637,7 @@
         <v>80</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15654,7 +15658,7 @@
         <v>80</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>80</v>
@@ -15665,7 +15669,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15688,16 +15692,16 @@
         <v>80</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15747,7 +15751,7 @@
         <v>80</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -15762,13 +15766,13 @@
         <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4180" uniqueCount="692">
   <si>
     <t>Property</t>
   </si>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -977,10 +980,6 @@
   </si>
   <si>
     <t>MedicationRequest.medication[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
   </si>
   <si>
     <t>What medication was supplied　医薬品</t>
@@ -1001,6 +1000,12 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
+    <t>A coded concept identifying substance or product that can be ordered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -1027,18 +1032,6 @@
   </si>
   <si>
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>medicationCodeableConcept</t>
@@ -2500,7 +2493,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN116"/>
+  <dimension ref="A1:AN115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5533,7 +5526,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5567,7 +5560,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>80</v>
@@ -5667,13 +5660,13 @@
         <v>169</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5984,7 +5977,7 @@
         <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
@@ -6009,13 +6002,13 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6581,10 +6574,10 @@
         <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>203</v>
@@ -6597,7 +6590,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>80</v>
@@ -6697,10 +6690,10 @@
         <v>169</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>213</v>
@@ -7011,7 +7004,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7037,13 +7030,13 @@
         <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7072,10 +7065,10 @@
         <v>184</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -7093,7 +7086,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>88</v>
@@ -7108,16 +7101,16 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -7125,7 +7118,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7151,13 +7144,13 @@
         <v>190</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7183,13 +7176,13 @@
         <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>80</v>
@@ -7207,7 +7200,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7222,13 +7215,13 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -7239,7 +7232,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7265,13 +7258,13 @@
         <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7279,7 +7272,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>80</v>
@@ -7300,10 +7293,10 @@
         <v>184</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>80</v>
@@ -7321,7 +7314,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>88</v>
@@ -7336,16 +7329,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7353,7 +7346,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7379,13 +7372,13 @@
         <v>190</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7415,7 +7408,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -7433,7 +7426,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7451,13 +7444,13 @@
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7465,7 +7458,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7491,13 +7484,13 @@
         <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7526,10 +7519,10 @@
         <v>184</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7547,7 +7540,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7562,16 +7555,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7579,7 +7572,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7602,16 +7595,16 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7661,7 +7654,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7682,7 +7675,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7693,7 +7686,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7716,13 +7709,13 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7773,7 +7766,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7794,7 +7787,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7805,7 +7798,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7828,7 +7821,7 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>309</v>
@@ -7863,29 +7856,29 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>88</v>
@@ -7900,37 +7893,37 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7942,16 +7935,16 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7977,13 +7970,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -8001,7 +7994,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>88</v>
@@ -8016,28 +8009,26 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8055,20 +8046,18 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8093,13 +8082,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -8117,10 +8106,10 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -8129,38 +8118,38 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>316</v>
+        <v>173</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -8172,15 +8161,17 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8217,31 +8208,31 @@
         <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
@@ -8261,15 +8252,15 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>79</v>
@@ -8281,21 +8272,23 @@
         <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>328</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>176</v>
+        <v>329</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8331,19 +8324,19 @@
         <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8355,7 +8348,7 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>80</v>
@@ -8364,18 +8357,18 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8383,10 +8376,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -8395,23 +8388,19 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>329</v>
+        <v>169</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8459,19 +8448,19 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>334</v>
+        <v>172</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
@@ -8480,29 +8469,29 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>335</v>
+        <v>173</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8514,15 +8503,17 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8559,31 +8550,31 @@
         <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>80</v>
@@ -8603,18 +8594,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -8623,21 +8614,23 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>175</v>
+        <v>338</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>176</v>
+        <v>339</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8673,31 +8666,31 @@
         <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>178</v>
+        <v>342</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>80</v>
@@ -8706,18 +8699,18 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>173</v>
+        <v>343</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8725,7 +8718,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>88</v>
@@ -8740,20 +8733,18 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8801,7 +8792,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8822,18 +8813,18 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8841,7 +8832,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>88</v>
@@ -8856,18 +8847,18 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8915,7 +8906,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8936,18 +8927,18 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8955,7 +8946,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>88</v>
@@ -8970,17 +8961,17 @@
         <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -9029,7 +9020,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9050,18 +9041,18 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9084,17 +9075,19 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>169</v>
+        <v>298</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9143,7 +9136,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9164,18 +9157,18 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9198,19 +9191,19 @@
         <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9259,7 +9252,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9280,18 +9273,18 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9299,7 +9292,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>88</v>
@@ -9314,20 +9307,18 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>169</v>
+        <v>383</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9375,10 +9366,10 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -9390,24 +9381,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9415,7 +9406,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>88</v>
@@ -9427,19 +9418,19 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9489,10 +9480,10 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>88</v>
@@ -9504,24 +9495,24 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>390</v>
+        <v>259</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9532,7 +9523,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -9544,16 +9535,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9603,13 +9594,13 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
@@ -9618,24 +9609,24 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9643,10 +9634,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
@@ -9655,20 +9646,18 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9717,13 +9706,13 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
@@ -9732,24 +9721,24 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9757,7 +9746,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>88</v>
@@ -9772,15 +9761,17 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9829,7 +9820,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9844,24 +9835,24 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9881,19 +9872,19 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9943,7 +9934,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9958,16 +9949,16 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9975,7 +9966,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9995,19 +9986,19 @@
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10033,13 +10024,11 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -10057,7 +10046,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10072,16 +10061,16 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -10089,7 +10078,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10109,19 +10098,19 @@
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>190</v>
+        <v>438</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10147,11 +10136,13 @@
         <v>80</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y67" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>80</v>
@@ -10169,7 +10160,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10184,16 +10175,16 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10201,7 +10192,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10212,7 +10203,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -10224,16 +10215,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>440</v>
+        <v>190</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10259,13 +10250,13 @@
         <v>80</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>448</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>80</v>
@@ -10283,13 +10274,13 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
@@ -10298,24 +10289,24 @@
         <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10338,16 +10329,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>190</v>
+        <v>455</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10373,13 +10364,13 @@
         <v>80</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>80</v>
@@ -10397,7 +10388,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10412,24 +10403,24 @@
         <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL69" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="AN69" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10449,19 +10440,19 @@
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10511,7 +10502,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10526,16 +10517,16 @@
         <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10543,7 +10534,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10566,16 +10557,16 @@
         <v>89</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="M71" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10625,7 +10616,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10640,13 +10631,13 @@
         <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10657,7 +10648,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10680,16 +10671,16 @@
         <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>102</v>
+        <v>472</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10739,7 +10730,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10754,13 +10745,13 @@
         <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10771,7 +10762,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10782,7 +10773,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10794,18 +10785,18 @@
         <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>474</v>
+        <v>154</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10853,13 +10844,13 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
@@ -10868,13 +10859,13 @@
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10885,7 +10876,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10905,21 +10896,21 @@
         <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10943,13 +10934,13 @@
         <v>80</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>80</v>
@@ -10967,7 +10958,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10982,13 +10973,13 @@
         <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10999,7 +10990,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11010,7 +11001,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
@@ -11022,16 +11013,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>190</v>
+        <v>491</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>488</v>
+        <v>405</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11057,37 +11048,37 @@
         <v>80</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>489</v>
+        <v>80</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
@@ -11096,13 +11087,13 @@
         <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -11113,7 +11104,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11136,16 +11127,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>407</v>
+        <v>500</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11195,7 +11186,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11210,13 +11201,13 @@
         <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11227,7 +11218,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11250,16 +11241,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11309,7 +11300,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11324,13 +11315,13 @@
         <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11341,7 +11332,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11352,7 +11343,7 @@
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>80</v>
@@ -11364,17 +11355,15 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>80</v>
@@ -11423,13 +11412,13 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>80</v>
@@ -11441,10 +11430,10 @@
         <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11455,7 +11444,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11478,13 +11467,13 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11535,7 +11524,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>512</v>
+        <v>172</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11547,16 +11536,16 @@
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>517</v>
+        <v>173</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11567,7 +11556,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11578,7 +11567,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11590,13 +11579,13 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>519</v>
+        <v>134</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>520</v>
+        <v>135</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11635,31 +11624,29 @@
         <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB80" s="2"/>
       <c r="AC80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -11668,7 +11655,7 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11679,9 +11666,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="C81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11702,13 +11691,13 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>134</v>
+        <v>522</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>135</v>
+        <v>523</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11747,14 +11736,16 @@
         <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB81" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
         <v>178</v>
@@ -11766,7 +11757,7 @@
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>139</v>
@@ -11789,10 +11780,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>80</v>
@@ -11802,7 +11793,7 @@
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -11814,13 +11805,13 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11903,41 +11894,43 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>527</v>
+        <v>133</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>531</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11985,7 +11978,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>178</v>
+        <v>532</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11994,7 +11987,7 @@
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>139</v>
@@ -12006,7 +11999,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -12017,43 +12010,41 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>133</v>
+        <v>511</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12101,19 +12092,19 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>80</v>
@@ -12122,7 +12113,7 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>131</v>
+        <v>537</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
@@ -12133,7 +12124,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12156,17 +12147,15 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>536</v>
+        <v>170</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>80</v>
@@ -12215,7 +12204,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>535</v>
+        <v>172</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12227,7 +12216,7 @@
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>80</v>
@@ -12236,7 +12225,7 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>539</v>
+        <v>173</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12247,18 +12236,18 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>80</v>
@@ -12270,15 +12259,17 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>80</v>
@@ -12327,19 +12318,19 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>80</v>
@@ -12359,11 +12350,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>146</v>
+        <v>529</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12376,24 +12367,26 @@
         <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>175</v>
+        <v>530</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>176</v>
+        <v>531</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12441,7 +12434,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>178</v>
+        <v>532</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12462,7 +12455,7 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12473,43 +12466,41 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>133</v>
+        <v>542</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12557,19 +12548,19 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>139</v>
+        <v>546</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>80</v>
@@ -12578,18 +12569,18 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>131</v>
+        <v>547</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12612,16 +12603,16 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12671,7 +12662,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12680,10 +12671,10 @@
         <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>548</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12692,18 +12683,18 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12726,16 +12717,16 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12785,7 +12776,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12806,7 +12797,7 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12817,7 +12808,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12840,18 +12831,20 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>552</v>
+        <v>219</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12899,7 +12892,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12917,10 +12910,10 @@
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
@@ -12931,7 +12924,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12954,20 +12947,16 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>560</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13015,7 +13004,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>559</v>
+        <v>172</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13027,16 +13016,16 @@
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>564</v>
+        <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>565</v>
+        <v>173</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -13047,18 +13036,18 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>80</v>
@@ -13070,15 +13059,17 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>80</v>
@@ -13115,31 +13106,31 @@
         <v>80</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>80</v>
@@ -13159,18 +13150,18 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>80</v>
@@ -13179,19 +13170,19 @@
         <v>80</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>133</v>
+        <v>409</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>175</v>
+        <v>567</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>176</v>
+        <v>568</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>149</v>
+        <v>569</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13229,31 +13220,31 @@
         <v>80</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>178</v>
+        <v>570</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>80</v>
@@ -13262,18 +13253,18 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>173</v>
+        <v>572</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13296,22 +13287,24 @@
         <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="Q95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13355,7 +13348,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13364,7 +13357,7 @@
         <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>100</v>
@@ -13376,18 +13369,18 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13407,27 +13400,25 @@
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>411</v>
+        <v>583</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P96" t="s" s="2">
-        <v>580</v>
-      </c>
+      <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>80</v>
       </c>
@@ -13471,7 +13462,7 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13480,7 +13471,7 @@
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>573</v>
+        <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13489,21 +13480,21 @@
         <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>80</v>
+        <v>587</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13526,16 +13517,16 @@
         <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13585,7 +13576,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13594,30 +13585,30 @@
         <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>100</v>
+        <v>546</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>590</v>
+        <v>547</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>591</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13640,16 +13631,16 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>547</v>
+        <v>596</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13699,7 +13690,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13708,30 +13699,30 @@
         <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>548</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>80</v>
+        <v>597</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>549</v>
+        <v>598</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13754,17 +13745,15 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>552</v>
+        <v>169</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>596</v>
+        <v>170</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>80</v>
@@ -13813,7 +13802,7 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>595</v>
+        <v>172</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13825,16 +13814,16 @@
         <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>599</v>
+        <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>600</v>
+        <v>173</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13845,18 +13834,18 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>80</v>
@@ -13868,15 +13857,17 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>80</v>
@@ -13913,31 +13904,31 @@
         <v>80</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>80</v>
@@ -13957,18 +13948,18 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>80</v>
@@ -13977,21 +13968,23 @@
         <v>80</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>133</v>
+        <v>602</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>175</v>
+        <v>603</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>176</v>
+        <v>604</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>80</v>
       </c>
@@ -14027,31 +14020,31 @@
         <v>80</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>178</v>
+        <v>607</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>80</v>
@@ -14060,18 +14053,18 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>173</v>
+        <v>608</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14088,30 +14081,30 @@
         <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>604</v>
+        <v>108</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="Q102" t="s" s="2">
         <v>80</v>
       </c>
@@ -14131,13 +14124,13 @@
         <v>80</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>80</v>
@@ -14155,7 +14148,7 @@
         <v>80</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14176,18 +14169,18 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14204,32 +14197,30 @@
         <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P103" t="s" s="2">
-        <v>616</v>
-      </c>
+      <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>80</v>
+        <v>624</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>80</v>
@@ -14247,13 +14238,13 @@
         <v>80</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>617</v>
+        <v>80</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>80</v>
@@ -14271,7 +14262,7 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14292,18 +14283,18 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14326,24 +14317,24 @@
         <v>89</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>80</v>
@@ -14385,7 +14376,7 @@
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14394,7 +14385,7 @@
         <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>80</v>
+        <v>634</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>100</v>
@@ -14406,18 +14397,18 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14440,24 +14431,26 @@
         <v>89</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="M105" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="N105" t="s" s="2">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="R105" t="s" s="2">
         <v>80</v>
@@ -14499,7 +14492,7 @@
         <v>80</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14508,7 +14501,7 @@
         <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>636</v>
+        <v>80</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>100</v>
@@ -14520,18 +14513,18 @@
         <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14551,29 +14544,27 @@
         <v>80</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>108</v>
+        <v>645</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>642</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>643</v>
+        <v>80</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>80</v>
@@ -14636,18 +14627,18 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>629</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14670,17 +14661,15 @@
         <v>80</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>647</v>
+        <v>511</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>80</v>
@@ -14729,7 +14718,7 @@
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14747,13 +14736,13 @@
         <v>80</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>80</v>
+        <v>652</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>80</v>
@@ -14761,7 +14750,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14784,13 +14773,13 @@
         <v>80</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>652</v>
+        <v>170</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>653</v>
+        <v>171</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14841,7 +14830,7 @@
         <v>80</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>651</v>
+        <v>172</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -14853,16 +14842,16 @@
         <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>654</v>
+        <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>655</v>
+        <v>173</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>80</v>
@@ -14873,18 +14862,18 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>80</v>
@@ -14896,15 +14885,17 @@
         <v>80</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>80</v>
@@ -14953,19 +14944,19 @@
         <v>80</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>80</v>
@@ -14985,11 +14976,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>146</v>
+        <v>529</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15002,24 +14993,26 @@
         <v>80</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>175</v>
+        <v>530</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>176</v>
+        <v>531</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N110" s="2"/>
+      <c r="N110" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>80</v>
       </c>
@@ -15067,7 +15060,7 @@
         <v>80</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>178</v>
+        <v>532</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15088,7 +15081,7 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
@@ -15099,43 +15092,41 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>532</v>
+        <v>658</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>533</v>
+        <v>658</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>80</v>
       </c>
@@ -15159,13 +15150,11 @@
         <v>80</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X111" s="2"/>
       <c r="Y111" t="s" s="2">
-        <v>80</v>
+        <v>660</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>80</v>
@@ -15183,39 +15172,39 @@
         <v>80</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>534</v>
+        <v>657</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>80</v>
+        <v>652</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>131</v>
+        <v>661</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>80</v>
+        <v>662</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15223,7 +15212,7 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>88</v>
@@ -15241,13 +15230,13 @@
         <v>190</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15273,11 +15262,13 @@
         <v>80</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X112" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="Y112" t="s" s="2">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>80</v>
@@ -15295,10 +15286,10 @@
         <v>80</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>88</v>
@@ -15313,21 +15304,21 @@
         <v>80</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15350,16 +15341,16 @@
         <v>80</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>190</v>
+        <v>673</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>668</v>
+        <v>405</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15385,13 +15376,13 @@
         <v>80</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>80</v>
@@ -15409,7 +15400,7 @@
         <v>80</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15424,35 +15415,35 @@
         <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>80</v>
+        <v>676</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>673</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>80</v>
+        <v>679</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>80</v>
@@ -15464,16 +15455,16 @@
         <v>80</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>407</v>
+        <v>683</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15523,13 +15514,13 @@
         <v>80</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>80</v>
@@ -15538,13 +15529,13 @@
         <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>678</v>
+        <v>80</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>671</v>
+        <v>80</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>80</v>
@@ -15555,11 +15546,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15578,16 +15569,16 @@
         <v>80</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15637,7 +15628,7 @@
         <v>80</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15652,132 +15643,18 @@
         <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN116" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
@@ -1609,7 +1609,7 @@
     <t>MedicationRequest.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage_Prescription}
+    <t xml:space="preserve">Dosage {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage}
 </t>
   </si>
   <si>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest.xlsx
@@ -1978,7 +1978,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>日</t>
+    <t>day</t>
   </si>
   <si>
     <t>Quantity.unit</t>
